--- a/SAM (AGUA_and_PARSER)/arquivo_consolidado_PAGUE_MENOS.xlsx
+++ b/SAM (AGUA_and_PARSER)/arquivo_consolidado_PAGUE_MENOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM-main (pimenta)\SAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM (AGUA_and_PARSER)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EDE2BC-F912-4A99-ABC6-7145FE43F438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBAE476-E333-4128-8EFE-53B7E88D0E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Dc_identificador_pessoa_juridica_cliente</t>
   </si>
   <si>
-    <t>Valores_consumo Valor</t>
-  </si>
-  <si>
     <t>Unidade_medida</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>Vencimento</t>
+  </si>
+  <si>
+    <t>Valores_consumo</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -414,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -426,55 +426,55 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
